--- a/ig/FSHTransformation2.4/StructureDefinition-ror-commune-cog.xlsx
+++ b/ig/FSHTransformation2.4/StructureDefinition-ror-commune-cog.xlsx
@@ -24,13 +24,13 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://esante.gouv.fr/ci-sis/fhir/ImplementationGuide/ROR/StructureDefinition/ror-commune-cog</t>
+    <t>https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-commune-cog</t>
   </si>
   <si>
     <t>Version</t>
   </si>
   <si>
-    <t>2.4</t>
+    <t>0.1.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/ig/FSHTransformation2.4/StructureDefinition-ror-commune-cog.xlsx
+++ b/ig/FSHTransformation2.4/StructureDefinition-ror-commune-cog.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="106">
   <si>
     <t>Property</t>
   </si>
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-commune-cog</t>
+    <t>http://interop.esante.gouv.fr/fhir/ig/ror24/StructureDefinition/ror-commune-cog</t>
   </si>
   <si>
     <t>Version</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-08</t>
+    <t>2023-02-17T09:09:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -276,21 +276,11 @@
     <t>Extension.extension</t>
   </si>
   <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
     <t xml:space="preserve">Extension
 </t>
   </si>
   <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+    <t>An Extension</t>
   </si>
   <si>
     <t xml:space="preserve">value:url}
@@ -310,31 +300,7 @@
 ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
-    <t>Extension.extension:code</t>
-  </si>
-  <si>
-    <t>code</t>
-  </si>
-  <si>
-    <t>An Extension</t>
-  </si>
-  <si>
-    <t>Extension.extension:code.id</t>
-  </si>
-  <si>
-    <t>Extension.extension.id</t>
-  </si>
-  <si>
-    <t>Extension.extension:code.extension</t>
-  </si>
-  <si>
-    <t>Extension.extension.extension</t>
-  </si>
-  <si>
-    <t>Extension.extension:code.url</t>
-  </si>
-  <si>
-    <t>Extension.extension.url</t>
+    <t>Extension.url</t>
   </si>
   <si>
     <t xml:space="preserve">uri
@@ -350,16 +316,10 @@
     <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
   </si>
   <si>
-    <t>Extension.url</t>
-  </si>
-  <si>
     <t>N/A</t>
   </si>
   <si>
-    <t>Extension.extension:code.value[x]</t>
-  </si>
-  <si>
-    <t>Extension.extension.value[x]</t>
+    <t>Extension.value[x]</t>
   </si>
   <si>
     <t xml:space="preserve">CodeableConcept
@@ -378,15 +338,8 @@
     <t>https://mos.esante.gouv.fr/NOS/JDV_J230-CommuneOM-ROR/FHIR/JDV-J230-CommuneOM-ROR</t>
   </si>
   <si>
-    <t>Extension.value[x]</t>
-  </si>
-  <si>
     <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 </t>
-  </si>
-  <si>
-    <t>base64Binary
-booleancanonicalcodedatedateTimedecimalidinstantintegermarkdownoidpositiveIntstringtimeunsignedInturiurluuidAddressAgeAnnotationAttachmentCodeableConceptCodingContactPointCountDistanceDurationHumanNameIdentifierMoneyPeriodQuantityRangeRatioReferenceSampledDataSignatureTimingContactDetailContributorDataRequirementExpressionParameterDefinitionRelatedArtifactTriggerDefinitionUsageContextDosageMeta</t>
   </si>
 </sst>
 </file>
@@ -689,7 +642,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK11"/>
+  <dimension ref="A1:AK6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -698,17 +651,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="34.1875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="29.1484375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="19.59765625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="19.59765625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="12.64453125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="8.95703125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
     <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="255.0" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="17.24609375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1064,14 +1017,14 @@
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
         <v>74</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>73</v>
@@ -1083,17 +1036,15 @@
         <v>73</v>
       </c>
       <c r="K4" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="L4" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="M4" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="L4" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="M4" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="N4" t="s" s="2">
-        <v>90</v>
-      </c>
+      <c r="N4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
         <v>73</v>
@@ -1130,19 +1081,19 @@
         <v>73</v>
       </c>
       <c r="AB4" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AC4" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AD4" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE4" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AF4" t="s" s="2">
         <v>91</v>
-      </c>
-      <c r="AC4" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AD4" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE4" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AF4" t="s" s="2">
-        <v>94</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>74</v>
@@ -1154,28 +1105,26 @@
         <v>73</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>84</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="C5" t="s" s="2">
-        <v>97</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
         <v>73</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G5" t="s" s="2">
         <v>79</v>
@@ -1190,22 +1139,24 @@
         <v>73</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>27</v>
+        <v>95</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="N5" s="2"/>
+        <v>96</v>
+      </c>
+      <c r="N5" t="s" s="2">
+        <v>97</v>
+      </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
         <v>73</v>
       </c>
       <c r="Q5" s="2"/>
       <c r="R5" t="s" s="2">
-        <v>73</v>
+        <v>3</v>
       </c>
       <c r="S5" t="s" s="2">
         <v>73</v>
@@ -1247,22 +1198,22 @@
         <v>73</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>73</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6">
@@ -1270,7 +1221,7 @@
         <v>99</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -1293,13 +1244,13 @@
         <v>73</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
@@ -1326,13 +1277,11 @@
         <v>73</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y6" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="Y6" s="2"/>
       <c r="Z6" t="s" s="2">
-        <v>73</v>
+        <v>104</v>
       </c>
       <c r="AA6" t="s" s="2">
         <v>73</v>
@@ -1350,7 +1299,7 @@
         <v>73</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>74</v>
@@ -1362,527 +1311,10 @@
         <v>73</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>73</v>
+        <v>105</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="B7" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="C7" s="2"/>
-      <c r="D7" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="E7" s="2"/>
-      <c r="F7" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="G7" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H7" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I7" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="J7" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="K7" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="L7" t="s" s="2">
-        <v>27</v>
-      </c>
-      <c r="M7" t="s" s="2">
         <v>98</v>
-      </c>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-      <c r="P7" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Q7" s="2"/>
-      <c r="R7" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S7" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T7" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U7" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V7" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W7" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X7" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y7" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z7" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA7" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB7" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AC7" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AD7" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE7" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AF7" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AG7" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AH7" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI7" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AJ7" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AK7" t="s" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="B8" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="C8" s="2"/>
-      <c r="D8" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="E8" s="2"/>
-      <c r="F8" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G8" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H8" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I8" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="J8" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="K8" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="L8" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="N8" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="O8" s="2"/>
-      <c r="P8" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Q8" s="2"/>
-      <c r="R8" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="S8" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T8" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U8" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V8" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W8" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X8" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y8" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z8" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA8" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB8" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC8" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD8" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE8" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AF8" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="AG8" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH8" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI8" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AJ8" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AK8" t="s" s="2">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="B9" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="C9" s="2"/>
-      <c r="D9" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="E9" s="2"/>
-      <c r="F9" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="G9" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H9" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I9" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="J9" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="K9" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="L9" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="M9" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
-      <c r="P9" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Q9" s="2"/>
-      <c r="R9" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S9" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T9" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U9" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V9" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W9" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X9" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="Y9" s="2"/>
-      <c r="Z9" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="AA9" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB9" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC9" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD9" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE9" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AF9" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="AG9" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AH9" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI9" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AJ9" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="AK9" t="s" s="2">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="B10" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="C10" s="2"/>
-      <c r="D10" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="E10" s="2"/>
-      <c r="F10" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G10" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H10" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I10" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="J10" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="K10" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="L10" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="O10" s="2"/>
-      <c r="P10" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Q10" s="2"/>
-      <c r="R10" t="s" s="2">
-        <v>3</v>
-      </c>
-      <c r="S10" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T10" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U10" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V10" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W10" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X10" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y10" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z10" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA10" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB10" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC10" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD10" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE10" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AF10" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="AG10" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH10" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI10" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AJ10" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AK10" t="s" s="2">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="B11" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="C11" s="2"/>
-      <c r="D11" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="E11" s="2"/>
-      <c r="F11" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="G11" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H11" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I11" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="J11" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="K11" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="L11" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="M11" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
-      <c r="P11" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Q11" s="2"/>
-      <c r="R11" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S11" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T11" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U11" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V11" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W11" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X11" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y11" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z11" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA11" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB11" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC11" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD11" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE11" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AF11" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="AG11" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AH11" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI11" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AJ11" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="AK11" t="s" s="2">
-        <v>110</v>
       </c>
     </row>
   </sheetData>

--- a/ig/FSHTransformation2.4/StructureDefinition-ror-commune-cog.xlsx
+++ b/ig/FSHTransformation2.4/StructureDefinition-ror-commune-cog.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-17T09:09:31+00:00</t>
+    <t>2023-02-17T09:40:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/FSHTransformation2.4/StructureDefinition-ror-commune-cog.xlsx
+++ b/ig/FSHTransformation2.4/StructureDefinition-ror-commune-cog.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-17T09:40:52+00:00</t>
+    <t>2023-02-17T11:17:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
